--- a/inequalities/CF_level.xlsx
+++ b/inequalities/CF_level.xlsx
@@ -374,13 +374,13 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.7723</v>
+        <v>0.6814</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0696</v>
+        <v>0.1275</v>
       </c>
       <c r="D2" t="n">
-        <v>23.862</v>
+        <v>5.4264</v>
       </c>
     </row>
     <row r="3">
@@ -388,13 +388,13 @@
         <v>-1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1185</v>
+        <v>0.1453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0381</v>
+        <v>0.0522</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2438</v>
+        <v>0.3373</v>
       </c>
     </row>
     <row r="4">
@@ -402,13 +402,13 @@
         <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>1.4854</v>
+        <v>0.535</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3462</v>
+        <v>0.0102</v>
       </c>
       <c r="D4" t="n">
-        <v>27.6531</v>
+        <v>6.567</v>
       </c>
     </row>
     <row r="5">
@@ -416,13 +416,13 @@
         <v>-0.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6523</v>
+        <v>0.3479</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1367</v>
+        <v>0.1354</v>
       </c>
       <c r="D5" t="n">
-        <v>3.2615</v>
+        <v>1.1562</v>
       </c>
     </row>
     <row r="6">
@@ -430,13 +430,13 @@
         <v>-0.5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1249</v>
+        <v>0.1529</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0527</v>
+        <v>0.0675</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2467</v>
+        <v>0.3407</v>
       </c>
     </row>
     <row r="7">
@@ -444,13 +444,13 @@
         <v>-0.5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.57</v>
+        <v>0.2505</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0276</v>
+        <v>0.0527</v>
       </c>
       <c r="D7" t="n">
-        <v>5.1281</v>
+        <v>1.5086</v>
       </c>
     </row>
     <row r="8">
@@ -458,13 +458,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3743</v>
+        <v>0.254</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1466</v>
+        <v>0.1248</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9461</v>
+        <v>0.5207</v>
       </c>
     </row>
     <row r="9">
@@ -472,13 +472,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1348</v>
+        <v>0.1664</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0683</v>
+        <v>0.0848</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2556</v>
+        <v>0.3657</v>
       </c>
     </row>
     <row r="10">
@@ -486,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2921</v>
+        <v>0.1516</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0426</v>
+        <v>0.0551</v>
       </c>
       <c r="D10" t="n">
-        <v>1.5718</v>
+        <v>0.5529</v>
       </c>
     </row>
     <row r="11">
@@ -500,13 +500,13 @@
         <v>0.5</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3005</v>
+        <v>0.236</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1403</v>
+        <v>0.1177</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5685</v>
+        <v>0.4188</v>
       </c>
     </row>
     <row r="12">
@@ -514,13 +514,13 @@
         <v>0.5</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1499</v>
+        <v>0.1887</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0818</v>
+        <v>0.1083</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2864</v>
+        <v>0.4356</v>
       </c>
     </row>
     <row r="13">
@@ -528,13 +528,13 @@
         <v>0.5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1894</v>
+        <v>0.1101</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0458</v>
+        <v>0.0477</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7519</v>
+        <v>0.2958</v>
       </c>
     </row>
     <row r="14">
@@ -542,13 +542,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2981</v>
+        <v>0.2597</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1362</v>
+        <v>0.121</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5176</v>
+        <v>0.4738</v>
       </c>
     </row>
     <row r="15">
@@ -556,13 +556,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1728</v>
+        <v>0.2256</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1024</v>
+        <v>0.1283</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3347</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="16">
@@ -570,13 +570,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1433</v>
+        <v>0.0892</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0413</v>
+        <v>0.0426</v>
       </c>
       <c r="D16" t="n">
-        <v>0.493</v>
+        <v>0.2179</v>
       </c>
     </row>
     <row r="17">
@@ -584,13 +584,13 @@
         <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3434</v>
+        <v>0.3318</v>
       </c>
       <c r="C17" t="n">
-        <v>0.149</v>
+        <v>0.1332</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6056</v>
+        <v>0.7031</v>
       </c>
     </row>
     <row r="18">
@@ -598,13 +598,13 @@
         <v>1.5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2079</v>
+        <v>0.2874</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1244</v>
+        <v>0.148</v>
       </c>
       <c r="D18" t="n">
-        <v>0.427</v>
+        <v>0.8332</v>
       </c>
     </row>
     <row r="19">
@@ -612,13 +612,13 @@
         <v>1.5</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1193</v>
+        <v>0.0772</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0417</v>
+        <v>0.039</v>
       </c>
       <c r="D19" t="n">
-        <v>0.393</v>
+        <v>0.1739</v>
       </c>
     </row>
     <row r="20">
@@ -626,13 +626,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4505</v>
+        <v>0.4949</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1823</v>
+        <v>0.1832</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8671</v>
+        <v>1.2735</v>
       </c>
     </row>
     <row r="21">
@@ -640,13 +640,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2633</v>
+        <v>0.3944</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1526</v>
+        <v>0.1775</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5863</v>
+        <v>1.5268</v>
       </c>
     </row>
     <row r="22">
@@ -654,13 +654,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1054</v>
+        <v>0.0697</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0408</v>
+        <v>0.0365</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3404</v>
+        <v>0.1537</v>
       </c>
     </row>
   </sheetData>
